--- a/projects/com.hwcloud.smn/t1.xlsx
+++ b/projects/com.hwcloud.smn/t1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\python\smn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="19095" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="540" windowWidth="19095" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="work" sheetId="1" r:id="rId1"/>
     <sheet name="phone" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="113">
   <si>
     <t>组别</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -393,14 +398,18 @@
   </si>
   <si>
     <t>手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹振江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +700,15 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,21 +736,20 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1020,20 +1037,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -1131,9 +1148,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>33</v>
@@ -1229,7 +1246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="17.25">
+    <row r="3" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>43</v>
@@ -1329,8 +1346,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="17.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1431,8 +1448,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="17.25">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
       <c r="B5" s="7" t="s">
         <v>57</v>
       </c>
@@ -1531,8 +1548,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="14.25">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
       <c r="B6" s="13" t="s">
         <v>59</v>
       </c>
@@ -1631,8 +1648,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="17.25">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -1731,8 +1748,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="17.25">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
@@ -1831,8 +1848,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="17.25">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
@@ -1931,8 +1948,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="17.25">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
@@ -2031,8 +2048,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="17.25">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
         <v>65</v>
       </c>
@@ -2131,8 +2148,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="17.25">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
       <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
@@ -2231,8 +2248,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="17.25">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
       <c r="B13" s="7" t="s">
         <v>67</v>
       </c>
@@ -2331,8 +2348,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.25">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
       <c r="B14" s="16" t="s">
         <v>68</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="17.25">
+    <row r="15" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>43</v>
@@ -2531,8 +2548,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="17.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2633,8 +2650,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="17.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
         <v>71</v>
       </c>
@@ -2733,8 +2750,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="17.25">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
       <c r="B18" s="7" t="s">
         <v>72</v>
       </c>
@@ -2833,8 +2850,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="17.25">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
       <c r="B19" s="7" t="s">
         <v>73</v>
       </c>
@@ -2933,8 +2950,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="17.25">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
       </c>
@@ -3033,8 +3050,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="17.25">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
       <c r="B21" s="7" t="s">
         <v>75</v>
       </c>
@@ -3133,8 +3150,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="17.25">
-      <c r="A22" s="26"/>
+    <row r="22" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="29"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
       </c>
@@ -3233,8 +3250,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="17.25">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
       <c r="B23" s="7" t="s">
         <v>77</v>
       </c>
@@ -3333,8 +3350,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="17.25">
-      <c r="A24" s="26"/>
+    <row r="24" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
       <c r="B24" s="7" t="s">
         <v>79</v>
       </c>
@@ -3433,8 +3450,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="17.25">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
       <c r="B25" s="18" t="s">
         <v>80</v>
       </c>
@@ -3533,8 +3550,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="14.25">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
       <c r="B26" s="16" t="s">
         <v>81</v>
       </c>
@@ -3633,7 +3650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="17.25">
+    <row r="27" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>43</v>
@@ -3733,8 +3750,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="17.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -3835,8 +3852,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.25">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
       <c r="B29" s="13" t="s">
         <v>84</v>
       </c>
@@ -3937,8 +3954,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.25">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
       <c r="B30" s="13" t="s">
         <v>86</v>
       </c>
@@ -4039,8 +4056,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="17.25">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
       <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
@@ -4141,8 +4158,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="17.25">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
       <c r="B32" s="7" t="s">
         <v>89</v>
       </c>
@@ -4243,8 +4260,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="17.25">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
       <c r="B33" s="7" t="s">
         <v>90</v>
       </c>
@@ -4343,8 +4360,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="17.25">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
       <c r="B34" s="7" t="s">
         <v>91</v>
       </c>
@@ -4445,8 +4462,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="17.25">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
       <c r="B35" s="7" t="s">
         <v>93</v>
       </c>
@@ -4545,8 +4562,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="17.25">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
       <c r="B36" s="7" t="s">
         <v>94</v>
       </c>
@@ -4645,8 +4662,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="17.25">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
       <c r="B37" s="7" t="s">
         <v>95</v>
       </c>
@@ -4745,8 +4762,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="14.25">
-      <c r="A38" s="30"/>
+    <row r="38" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
       <c r="B38" s="16" t="s">
         <v>96</v>
       </c>
@@ -4847,7 +4864,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="17.25">
+    <row r="39" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
         <v>43</v>
@@ -4947,8 +4964,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="17.25">
-      <c r="A40" s="31" t="s">
+    <row r="40" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -5049,8 +5066,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="17.25">
-      <c r="A41" s="32"/>
+    <row r="41" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="23"/>
       <c r="B41" s="7" t="s">
         <v>100</v>
       </c>
@@ -5149,8 +5166,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="17.25">
-      <c r="A42" s="32"/>
+    <row r="42" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
       <c r="B42" s="7" t="s">
         <v>101</v>
       </c>
@@ -5249,8 +5266,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="17.25">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="23"/>
       <c r="B43" s="7" t="s">
         <v>102</v>
       </c>
@@ -5349,8 +5366,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="17.25">
-      <c r="A44" s="32"/>
+    <row r="44" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="23"/>
       <c r="B44" s="18" t="s">
         <v>103</v>
       </c>
@@ -5449,8 +5466,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="17.25">
-      <c r="A45" s="32"/>
+    <row r="45" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="23"/>
       <c r="B45" s="18" t="s">
         <v>104</v>
       </c>
@@ -5549,8 +5566,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="17.25">
-      <c r="A46" s="32"/>
+    <row r="46" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
       <c r="B46" s="18" t="s">
         <v>105</v>
       </c>
@@ -5649,8 +5666,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="17.25">
-      <c r="A47" s="32"/>
+    <row r="47" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="23"/>
       <c r="B47" s="7" t="s">
         <v>106</v>
       </c>
@@ -5749,8 +5766,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="17.25">
-      <c r="A48" s="32"/>
+    <row r="48" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="23"/>
       <c r="B48" s="7" t="s">
         <v>107</v>
       </c>
@@ -5849,8 +5866,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="17.25">
-      <c r="A49" s="32"/>
+    <row r="49" spans="1:34" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="23"/>
       <c r="B49" s="7" t="s">
         <v>108</v>
       </c>
@@ -5949,8 +5966,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="14.25">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:34" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="24"/>
       <c r="B50" s="16" t="s">
         <v>109</v>
       </c>
@@ -6065,19 +6082,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -6085,199 +6102,127 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B3">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B4">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25">
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B6">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B8">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B9">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B10">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B11">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B13">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B14">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B15">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25">
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B16">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
+    </row>
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B17">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
+    </row>
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B18">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
+    </row>
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B19">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B20">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
+    </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B21">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
+    </row>
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B22">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B23">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25">
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B24">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>83</v>
       </c>
@@ -6285,180 +6230,120 @@
         <v>13403622324</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25">
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B27">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
+    </row>
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B28">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25">
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B29">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25">
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B30">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25">
+        <v>15640018370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B31">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25">
+        <v>16647200720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B32">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25">
+    </row>
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B33">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25">
+    </row>
+    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B34">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25">
+    </row>
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B35">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25">
+    </row>
+    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B36">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25">
+    </row>
+    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25">
+    </row>
+    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B38">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25">
+    </row>
+    <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B39">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25">
+    </row>
+    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B40">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25">
+    </row>
+    <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B41">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25">
+    </row>
+    <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B42">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25">
+    </row>
+    <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B43">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25">
+    </row>
+    <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B44">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25">
+    </row>
+    <row r="45" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B45">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25">
+    </row>
+    <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B46">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
+    </row>
+    <row r="47" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B47">
-        <v>13403622324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25">
+    </row>
+    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="B48">
-        <v>13403622324</v>
       </c>
     </row>
   </sheetData>
@@ -6468,12 +6353,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
